--- a/data/Func_SimpleSearch.xlsx
+++ b/data/Func_SimpleSearch.xlsx
@@ -24,10 +24,10 @@
     <t>OpportunityID</t>
   </si>
   <si>
-    <t>OPP-0002869474</t>
+    <t>Amazon.com, Inc</t>
   </si>
   <si>
-    <t>Amazon.com, Inc</t>
+    <t>OPE-0003018780</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,10 +395,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
